--- a/MrGimmickVipPro/Assets/Book1.xlsx
+++ b/MrGimmickVipPro/Assets/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nghoa\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nghoa\Desktop\MrGimmickVipPro\MrGimmickVipPro\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6B12EE-640E-40F6-B85D-B151171A4CF9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D185941-E7D7-4623-AFEA-0C34E90CE38E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5910" yWindow="2670" windowWidth="12120" windowHeight="8325" tabRatio="237" xr2:uid="{5CE4F147-0BAB-4B60-BA7F-7C42741DDEFC}"/>
+    <workbookView xWindow="5385" yWindow="1455" windowWidth="12120" windowHeight="8325" tabRatio="237" xr2:uid="{5CE4F147-0BAB-4B60-BA7F-7C42741DDEFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -892,8 +892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55126EDA-3B2B-4DF0-A5F9-1860B9969456}">
   <dimension ref="A2:CD288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M173" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q189" sqref="Q189"/>
+    <sheetView tabSelected="1" topLeftCell="L158" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V163" sqref="V163:AA163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13209,10 +13209,10 @@
         <v>765</v>
       </c>
       <c r="B159">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C159">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="D159">
         <v>328</v>
@@ -13222,10 +13222,10 @@
       </c>
       <c r="G159">
         <f t="shared" si="22"/>
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="H159">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="I159">
         <f t="shared" si="23"/>
@@ -13244,10 +13244,10 @@
         <v>765</v>
       </c>
       <c r="P159">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q159">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="R159">
         <v>328</v>
@@ -13261,11 +13261,11 @@
       </c>
       <c r="W159">
         <f t="shared" si="24"/>
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="X159">
         <f t="shared" si="25"/>
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Y159">
         <f t="shared" si="26"/>
@@ -13290,10 +13290,10 @@
         <v>787</v>
       </c>
       <c r="B160">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C160">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="D160">
         <v>328</v>
@@ -13303,10 +13303,10 @@
       </c>
       <c r="G160">
         <f t="shared" si="22"/>
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="H160">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="I160">
         <f t="shared" si="23"/>
@@ -13325,10 +13325,10 @@
         <v>787</v>
       </c>
       <c r="P160">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q160">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="R160">
         <v>328</v>
@@ -13342,11 +13342,11 @@
       </c>
       <c r="W160">
         <f t="shared" si="24"/>
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="X160">
         <f t="shared" si="25"/>
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Y160">
         <f t="shared" si="26"/>
@@ -13377,10 +13377,10 @@
         <v>809</v>
       </c>
       <c r="B161">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C161">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="D161">
         <v>328</v>
@@ -13390,10 +13390,10 @@
       </c>
       <c r="G161">
         <f t="shared" si="22"/>
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="H161">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="I161">
         <f t="shared" si="23"/>
@@ -13412,10 +13412,10 @@
         <v>809</v>
       </c>
       <c r="P161">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q161">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="R161">
         <v>328</v>
@@ -13429,11 +13429,11 @@
       </c>
       <c r="W161">
         <f t="shared" si="24"/>
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="X161">
         <f t="shared" si="25"/>
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Y161">
         <f t="shared" si="26"/>
@@ -13458,10 +13458,10 @@
         <v>831</v>
       </c>
       <c r="B162">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C162">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="D162">
         <v>328</v>
@@ -13471,10 +13471,10 @@
       </c>
       <c r="G162">
         <f t="shared" si="22"/>
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="H162">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="I162">
         <f t="shared" si="23"/>
@@ -13493,10 +13493,10 @@
         <v>831</v>
       </c>
       <c r="P162">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q162">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="R162">
         <v>328</v>
@@ -13510,11 +13510,11 @@
       </c>
       <c r="W162">
         <f t="shared" si="24"/>
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="X162">
         <f t="shared" si="25"/>
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Y162">
         <f t="shared" si="26"/>
@@ -13554,13 +13554,13 @@
     </row>
     <row r="163" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="B163">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C163">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="D163">
         <v>328</v>
@@ -13570,14 +13570,14 @@
       </c>
       <c r="G163">
         <f t="shared" si="22"/>
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="H163">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="I163">
         <f t="shared" si="23"/>
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="J163">
         <v>328</v>
@@ -13589,13 +13589,13 @@
         <v>200607</v>
       </c>
       <c r="O163">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="P163">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q163">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="R163">
         <v>328</v>
@@ -13609,15 +13609,15 @@
       </c>
       <c r="W163">
         <f t="shared" si="24"/>
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="X163">
         <f t="shared" si="25"/>
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Y163">
         <f t="shared" si="26"/>
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="Z163">
         <f t="shared" si="27"/>
